--- a/用例数据/深A/债券跨市场转托管/测试结果.xlsx
+++ b/用例数据/深A/债券跨市场转托管/测试结果.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1778" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1784" uniqueCount="338">
   <si>
     <t>EXCHID</t>
   </si>
@@ -1036,6 +1036,10 @@
   </si>
   <si>
     <t>5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCB1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3761,8 +3765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EI27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BS1" workbookViewId="0">
-      <selection activeCell="BZ14" sqref="BZ14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4332,6 +4336,9 @@
       <c r="F2" s="1" t="s">
         <v>86</v>
       </c>
+      <c r="I2" s="1" t="s">
+        <v>337</v>
+      </c>
       <c r="J2" s="1" t="s">
         <v>87</v>
       </c>
@@ -4658,6 +4665,9 @@
       <c r="F3" s="1" t="s">
         <v>86</v>
       </c>
+      <c r="I3" s="1" t="s">
+        <v>337</v>
+      </c>
       <c r="J3" s="1" t="s">
         <v>87</v>
       </c>
@@ -4984,6 +4994,9 @@
       <c r="F4" s="1" t="s">
         <v>86</v>
       </c>
+      <c r="I4" s="1" t="s">
+        <v>337</v>
+      </c>
       <c r="J4" s="1" t="s">
         <v>87</v>
       </c>
@@ -5310,6 +5323,9 @@
       <c r="F5" s="1" t="s">
         <v>86</v>
       </c>
+      <c r="I5" s="1" t="s">
+        <v>337</v>
+      </c>
       <c r="J5" s="1" t="s">
         <v>111</v>
       </c>
@@ -5636,6 +5652,9 @@
       <c r="F6" s="1" t="s">
         <v>86</v>
       </c>
+      <c r="I6" s="1" t="s">
+        <v>337</v>
+      </c>
       <c r="J6" s="1" t="s">
         <v>111</v>
       </c>
@@ -5961,6 +5980,9 @@
       </c>
       <c r="F7" s="1" t="s">
         <v>86</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>337</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>111</v>
@@ -6292,6 +6314,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/用例数据/深A/债券跨市场转托管/测试结果.xlsx
+++ b/用例数据/深A/债券跨市场转托管/测试结果.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1778" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1778" uniqueCount="337">
   <si>
     <t>EXCHID</t>
   </si>
@@ -1033,13 +1033,17 @@
   </si>
   <si>
     <t>000006907643</t>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1049,6 +1053,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1075,9 +1087,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3748,8 +3761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EI27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="BS1" workbookViewId="0">
+      <selection activeCell="BZ14" sqref="BZ14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4502,8 +4515,8 @@
       <c r="BY2" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="BZ2" s="1" t="s">
-        <v>92</v>
+      <c r="BZ2" s="2" t="s">
+        <v>336</v>
       </c>
       <c r="CA2" s="1" t="s">
         <v>95</v>
@@ -4828,8 +4841,8 @@
       <c r="BY3" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="BZ3" s="1" t="s">
-        <v>92</v>
+      <c r="BZ3" s="2" t="s">
+        <v>336</v>
       </c>
       <c r="CA3" s="1" t="s">
         <v>95</v>
@@ -5154,8 +5167,8 @@
       <c r="BY4" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="BZ4" s="1" t="s">
-        <v>92</v>
+      <c r="BZ4" s="2" t="s">
+        <v>336</v>
       </c>
       <c r="CA4" s="1" t="s">
         <v>95</v>
@@ -5480,8 +5493,8 @@
       <c r="BY5" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="BZ5" s="1" t="s">
-        <v>92</v>
+      <c r="BZ5" s="2" t="s">
+        <v>336</v>
       </c>
       <c r="CA5" s="1" t="s">
         <v>95</v>
@@ -5806,8 +5819,8 @@
       <c r="BY6" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="BZ6" s="1" t="s">
-        <v>92</v>
+      <c r="BZ6" s="2" t="s">
+        <v>336</v>
       </c>
       <c r="CA6" s="1" t="s">
         <v>95</v>
@@ -6132,8 +6145,8 @@
       <c r="BY7" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="BZ7" s="1" t="s">
-        <v>92</v>
+      <c r="BZ7" s="2" t="s">
+        <v>336</v>
       </c>
       <c r="CA7" s="1" t="s">
         <v>95</v>

--- a/用例数据/深A/债券跨市场转托管/测试结果.xlsx
+++ b/用例数据/深A/债券跨市场转托管/测试结果.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25860" windowHeight="12210" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25860" windowHeight="12216" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="stklist" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1784" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1784" uniqueCount="339">
   <si>
     <t>EXCHID</t>
   </si>
@@ -988,9 +988,6 @@
   </si>
   <si>
     <t>10000</t>
-  </si>
-  <si>
-    <t>A2</t>
   </si>
   <si>
     <t>000006907638</t>
@@ -1040,6 +1037,27 @@
   </si>
   <si>
     <t>CCB1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>9999</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>9</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1405,9 +1423,9 @@
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1667,7 +1685,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>86</v>
       </c>
@@ -1927,7 +1945,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>86</v>
       </c>
@@ -2187,7 +2205,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>86</v>
       </c>
@@ -2447,26 +2465,26 @@
         <v>92</v>
       </c>
     </row>
-    <row r="5" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="6" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="7" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="8" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="10" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="11" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="12" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="13" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="16" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="22" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="23" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="24" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2482,81 +2500,81 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5" customWidth="1"/>
-    <col min="2" max="2" width="7.625" customWidth="1"/>
-    <col min="3" max="4" width="14.125" customWidth="1"/>
-    <col min="5" max="5" width="11.875" customWidth="1"/>
-    <col min="6" max="6" width="14.125" customWidth="1"/>
-    <col min="7" max="7" width="11.875" customWidth="1"/>
-    <col min="8" max="8" width="7.625" customWidth="1"/>
-    <col min="9" max="9" width="9.625" customWidth="1"/>
-    <col min="10" max="10" width="20.875" customWidth="1"/>
+    <col min="1" max="1" width="16.44140625" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" customWidth="1"/>
+    <col min="3" max="4" width="14.109375" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" customWidth="1"/>
+    <col min="7" max="7" width="11.88671875" customWidth="1"/>
+    <col min="8" max="8" width="7.6640625" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" customWidth="1"/>
+    <col min="10" max="10" width="20.88671875" customWidth="1"/>
     <col min="11" max="11" width="13" customWidth="1"/>
-    <col min="12" max="13" width="14.125" customWidth="1"/>
-    <col min="14" max="14" width="16.5" customWidth="1"/>
-    <col min="15" max="15" width="10.75" customWidth="1"/>
-    <col min="16" max="16" width="11.875" customWidth="1"/>
-    <col min="17" max="18" width="15.25" customWidth="1"/>
-    <col min="19" max="19" width="14.125" customWidth="1"/>
-    <col min="20" max="20" width="17.5" customWidth="1"/>
-    <col min="21" max="21" width="14.125" customWidth="1"/>
-    <col min="22" max="22" width="16.5" customWidth="1"/>
-    <col min="23" max="23" width="11.875" customWidth="1"/>
-    <col min="24" max="24" width="8.625" customWidth="1"/>
-    <col min="25" max="25" width="10.75" customWidth="1"/>
-    <col min="26" max="26" width="7.625" customWidth="1"/>
-    <col min="27" max="27" width="17.5" customWidth="1"/>
-    <col min="28" max="28" width="9.625" customWidth="1"/>
-    <col min="29" max="29" width="15.25" customWidth="1"/>
-    <col min="30" max="30" width="10.75" customWidth="1"/>
-    <col min="31" max="31" width="15.25" customWidth="1"/>
+    <col min="12" max="13" width="14.109375" customWidth="1"/>
+    <col min="14" max="14" width="16.44140625" customWidth="1"/>
+    <col min="15" max="15" width="10.77734375" customWidth="1"/>
+    <col min="16" max="16" width="11.88671875" customWidth="1"/>
+    <col min="17" max="18" width="15.21875" customWidth="1"/>
+    <col min="19" max="19" width="14.109375" customWidth="1"/>
+    <col min="20" max="20" width="17.44140625" customWidth="1"/>
+    <col min="21" max="21" width="14.109375" customWidth="1"/>
+    <col min="22" max="22" width="16.44140625" customWidth="1"/>
+    <col min="23" max="23" width="11.88671875" customWidth="1"/>
+    <col min="24" max="24" width="8.6640625" customWidth="1"/>
+    <col min="25" max="25" width="10.77734375" customWidth="1"/>
+    <col min="26" max="26" width="7.6640625" customWidth="1"/>
+    <col min="27" max="27" width="17.44140625" customWidth="1"/>
+    <col min="28" max="28" width="9.6640625" customWidth="1"/>
+    <col min="29" max="29" width="15.21875" customWidth="1"/>
+    <col min="30" max="30" width="10.77734375" customWidth="1"/>
+    <col min="31" max="31" width="15.21875" customWidth="1"/>
     <col min="32" max="32" width="22" customWidth="1"/>
-    <col min="33" max="33" width="11.875" customWidth="1"/>
-    <col min="34" max="34" width="20.875" customWidth="1"/>
-    <col min="35" max="35" width="24.25" customWidth="1"/>
-    <col min="36" max="36" width="23.125" customWidth="1"/>
+    <col min="33" max="33" width="11.88671875" customWidth="1"/>
+    <col min="34" max="34" width="20.88671875" customWidth="1"/>
+    <col min="35" max="35" width="24.21875" customWidth="1"/>
+    <col min="36" max="36" width="23.109375" customWidth="1"/>
     <col min="37" max="38" width="13" customWidth="1"/>
-    <col min="39" max="40" width="14.125" customWidth="1"/>
-    <col min="41" max="42" width="15.25" customWidth="1"/>
+    <col min="39" max="40" width="14.109375" customWidth="1"/>
+    <col min="41" max="42" width="15.21875" customWidth="1"/>
     <col min="43" max="44" width="13" customWidth="1"/>
-    <col min="45" max="45" width="14.125" customWidth="1"/>
-    <col min="46" max="46" width="16.5" customWidth="1"/>
-    <col min="47" max="47" width="23.125" customWidth="1"/>
-    <col min="48" max="48" width="19.75" customWidth="1"/>
-    <col min="49" max="49" width="23.125" customWidth="1"/>
-    <col min="50" max="50" width="15.25" customWidth="1"/>
-    <col min="51" max="51" width="18.625" customWidth="1"/>
-    <col min="52" max="52" width="17.5" customWidth="1"/>
-    <col min="53" max="54" width="16.5" customWidth="1"/>
-    <col min="55" max="56" width="17.5" customWidth="1"/>
-    <col min="57" max="57" width="16.5" customWidth="1"/>
-    <col min="58" max="58" width="17.5" customWidth="1"/>
-    <col min="59" max="59" width="18.625" customWidth="1"/>
-    <col min="60" max="60" width="25.5" customWidth="1"/>
-    <col min="61" max="61" width="27.625" customWidth="1"/>
-    <col min="62" max="62" width="20.875" customWidth="1"/>
-    <col min="63" max="63" width="16.5" customWidth="1"/>
-    <col min="64" max="64" width="23.125" customWidth="1"/>
-    <col min="65" max="65" width="9.625" customWidth="1"/>
-    <col min="66" max="66" width="23.125" customWidth="1"/>
-    <col min="67" max="67" width="18.625" customWidth="1"/>
-    <col min="68" max="68" width="24.25" customWidth="1"/>
-    <col min="69" max="69" width="19.75" customWidth="1"/>
-    <col min="70" max="70" width="15.25" customWidth="1"/>
-    <col min="71" max="71" width="16.5" customWidth="1"/>
-    <col min="72" max="72" width="18.625" customWidth="1"/>
-    <col min="73" max="73" width="19.75" customWidth="1"/>
-    <col min="74" max="74" width="26.5" customWidth="1"/>
-    <col min="75" max="75" width="14.125" customWidth="1"/>
+    <col min="45" max="45" width="14.109375" customWidth="1"/>
+    <col min="46" max="46" width="16.44140625" customWidth="1"/>
+    <col min="47" max="47" width="23.109375" customWidth="1"/>
+    <col min="48" max="48" width="19.77734375" customWidth="1"/>
+    <col min="49" max="49" width="23.109375" customWidth="1"/>
+    <col min="50" max="50" width="15.21875" customWidth="1"/>
+    <col min="51" max="51" width="18.6640625" customWidth="1"/>
+    <col min="52" max="52" width="17.44140625" customWidth="1"/>
+    <col min="53" max="54" width="16.44140625" customWidth="1"/>
+    <col min="55" max="56" width="17.44140625" customWidth="1"/>
+    <col min="57" max="57" width="16.44140625" customWidth="1"/>
+    <col min="58" max="58" width="17.44140625" customWidth="1"/>
+    <col min="59" max="59" width="18.6640625" customWidth="1"/>
+    <col min="60" max="60" width="25.44140625" customWidth="1"/>
+    <col min="61" max="61" width="27.6640625" customWidth="1"/>
+    <col min="62" max="62" width="20.88671875" customWidth="1"/>
+    <col min="63" max="63" width="16.44140625" customWidth="1"/>
+    <col min="64" max="64" width="23.109375" customWidth="1"/>
+    <col min="65" max="65" width="9.6640625" customWidth="1"/>
+    <col min="66" max="66" width="23.109375" customWidth="1"/>
+    <col min="67" max="67" width="18.6640625" customWidth="1"/>
+    <col min="68" max="68" width="24.21875" customWidth="1"/>
+    <col min="69" max="69" width="19.77734375" customWidth="1"/>
+    <col min="70" max="70" width="15.21875" customWidth="1"/>
+    <col min="71" max="71" width="16.44140625" customWidth="1"/>
+    <col min="72" max="72" width="18.6640625" customWidth="1"/>
+    <col min="73" max="73" width="19.77734375" customWidth="1"/>
+    <col min="74" max="74" width="26.44140625" customWidth="1"/>
+    <col min="75" max="75" width="14.109375" customWidth="1"/>
     <col min="76" max="76" width="13" customWidth="1"/>
     <col min="77" max="77" width="22" customWidth="1"/>
-    <col min="78" max="78" width="17.5" customWidth="1"/>
-    <col min="79" max="79" width="20.875" customWidth="1"/>
+    <col min="78" max="78" width="17.44140625" customWidth="1"/>
+    <col min="79" max="79" width="20.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>117</v>
       </c>
@@ -2795,7 +2813,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>309</v>
       </c>
@@ -3034,7 +3052,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>309</v>
       </c>
@@ -3273,7 +3291,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>309</v>
       </c>
@@ -3512,7 +3530,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="5" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>309</v>
       </c>
@@ -3751,10 +3769,10 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="7" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="8" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="6" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3765,140 +3783,140 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EI27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="AL1" workbookViewId="0">
+      <selection activeCell="AZ13" sqref="AZ13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="11.875" customWidth="1"/>
-    <col min="3" max="4" width="16.5" customWidth="1"/>
-    <col min="5" max="5" width="7.625" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" customWidth="1"/>
+    <col min="3" max="4" width="16.44140625" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="15.25" customWidth="1"/>
-    <col min="8" max="8" width="7.625" customWidth="1"/>
-    <col min="9" max="10" width="14.125" customWidth="1"/>
-    <col min="11" max="11" width="9.625" customWidth="1"/>
-    <col min="12" max="12" width="11.875" customWidth="1"/>
-    <col min="13" max="13" width="7.625" customWidth="1"/>
-    <col min="14" max="14" width="9.625" customWidth="1"/>
-    <col min="15" max="15" width="8.625" customWidth="1"/>
-    <col min="16" max="16" width="10.75" customWidth="1"/>
-    <col min="17" max="17" width="8.625" customWidth="1"/>
-    <col min="18" max="18" width="6.625" customWidth="1"/>
-    <col min="19" max="19" width="7.625" customWidth="1"/>
-    <col min="20" max="20" width="10.75" customWidth="1"/>
-    <col min="21" max="21" width="9.625" customWidth="1"/>
-    <col min="22" max="22" width="14.125" customWidth="1"/>
-    <col min="23" max="23" width="16.5" customWidth="1"/>
-    <col min="24" max="24" width="14.125" customWidth="1"/>
-    <col min="25" max="25" width="9.625" customWidth="1"/>
+    <col min="7" max="7" width="15.21875" customWidth="1"/>
+    <col min="8" max="8" width="7.6640625" customWidth="1"/>
+    <col min="9" max="10" width="14.109375" customWidth="1"/>
+    <col min="11" max="11" width="9.6640625" customWidth="1"/>
+    <col min="12" max="12" width="11.88671875" customWidth="1"/>
+    <col min="13" max="13" width="7.6640625" customWidth="1"/>
+    <col min="14" max="14" width="9.6640625" customWidth="1"/>
+    <col min="15" max="15" width="8.6640625" customWidth="1"/>
+    <col min="16" max="16" width="10.77734375" customWidth="1"/>
+    <col min="17" max="17" width="8.6640625" customWidth="1"/>
+    <col min="18" max="18" width="6.6640625" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" customWidth="1"/>
+    <col min="20" max="20" width="10.77734375" customWidth="1"/>
+    <col min="21" max="21" width="9.6640625" customWidth="1"/>
+    <col min="22" max="22" width="14.109375" customWidth="1"/>
+    <col min="23" max="23" width="16.44140625" customWidth="1"/>
+    <col min="24" max="24" width="14.109375" customWidth="1"/>
+    <col min="25" max="25" width="9.6640625" customWidth="1"/>
     <col min="26" max="26" width="13" customWidth="1"/>
-    <col min="27" max="27" width="8.625" customWidth="1"/>
-    <col min="28" max="28" width="9.625" customWidth="1"/>
-    <col min="29" max="29" width="23.125" customWidth="1"/>
-    <col min="30" max="30" width="10.75" customWidth="1"/>
-    <col min="31" max="31" width="15.25" customWidth="1"/>
-    <col min="32" max="33" width="14.125" customWidth="1"/>
+    <col min="27" max="27" width="8.6640625" customWidth="1"/>
+    <col min="28" max="28" width="9.6640625" customWidth="1"/>
+    <col min="29" max="29" width="23.109375" customWidth="1"/>
+    <col min="30" max="30" width="10.77734375" customWidth="1"/>
+    <col min="31" max="31" width="15.21875" customWidth="1"/>
+    <col min="32" max="33" width="14.109375" customWidth="1"/>
     <col min="34" max="35" width="13" customWidth="1"/>
-    <col min="36" max="36" width="9.625" customWidth="1"/>
+    <col min="36" max="36" width="9.6640625" customWidth="1"/>
     <col min="37" max="37" width="13" customWidth="1"/>
-    <col min="38" max="38" width="10.75" customWidth="1"/>
-    <col min="39" max="39" width="14.125" customWidth="1"/>
-    <col min="40" max="40" width="11.875" customWidth="1"/>
-    <col min="41" max="42" width="9.625" customWidth="1"/>
-    <col min="43" max="44" width="14.125" customWidth="1"/>
-    <col min="45" max="45" width="9.625" customWidth="1"/>
+    <col min="38" max="38" width="10.77734375" customWidth="1"/>
+    <col min="39" max="39" width="14.109375" customWidth="1"/>
+    <col min="40" max="40" width="11.88671875" customWidth="1"/>
+    <col min="41" max="42" width="9.6640625" customWidth="1"/>
+    <col min="43" max="44" width="14.109375" customWidth="1"/>
+    <col min="45" max="45" width="9.6640625" customWidth="1"/>
     <col min="46" max="46" width="13" customWidth="1"/>
-    <col min="47" max="47" width="14.125" customWidth="1"/>
-    <col min="48" max="48" width="8.625" customWidth="1"/>
-    <col min="49" max="49" width="17.5" customWidth="1"/>
-    <col min="50" max="50" width="11.875" customWidth="1"/>
-    <col min="51" max="51" width="8.625" customWidth="1"/>
-    <col min="52" max="52" width="9.625" customWidth="1"/>
+    <col min="47" max="47" width="14.109375" customWidth="1"/>
+    <col min="48" max="48" width="8.6640625" customWidth="1"/>
+    <col min="49" max="49" width="17.44140625" customWidth="1"/>
+    <col min="50" max="50" width="11.88671875" customWidth="1"/>
+    <col min="51" max="51" width="8.6640625" customWidth="1"/>
+    <col min="52" max="52" width="9.6640625" customWidth="1"/>
     <col min="53" max="53" width="13" customWidth="1"/>
-    <col min="54" max="54" width="16.5" customWidth="1"/>
+    <col min="54" max="54" width="16.44140625" customWidth="1"/>
     <col min="55" max="56" width="13" customWidth="1"/>
-    <col min="57" max="57" width="16.5" customWidth="1"/>
-    <col min="58" max="58" width="15.25" customWidth="1"/>
-    <col min="59" max="59" width="5.625" customWidth="1"/>
-    <col min="60" max="60" width="17.5" customWidth="1"/>
-    <col min="61" max="61" width="14.125" customWidth="1"/>
-    <col min="62" max="62" width="11.875" customWidth="1"/>
-    <col min="63" max="63" width="8.625" customWidth="1"/>
-    <col min="64" max="64" width="14.125" customWidth="1"/>
-    <col min="65" max="65" width="9.625" customWidth="1"/>
-    <col min="66" max="66" width="17.5" customWidth="1"/>
-    <col min="67" max="67" width="10.75" customWidth="1"/>
-    <col min="68" max="68" width="11.875" customWidth="1"/>
+    <col min="57" max="57" width="16.44140625" customWidth="1"/>
+    <col min="58" max="58" width="15.21875" customWidth="1"/>
+    <col min="59" max="59" width="5.6640625" customWidth="1"/>
+    <col min="60" max="60" width="17.44140625" customWidth="1"/>
+    <col min="61" max="61" width="14.109375" customWidth="1"/>
+    <col min="62" max="62" width="11.88671875" customWidth="1"/>
+    <col min="63" max="63" width="8.6640625" customWidth="1"/>
+    <col min="64" max="64" width="14.109375" customWidth="1"/>
+    <col min="65" max="65" width="9.6640625" customWidth="1"/>
+    <col min="66" max="66" width="17.44140625" customWidth="1"/>
+    <col min="67" max="67" width="10.77734375" customWidth="1"/>
+    <col min="68" max="68" width="11.88671875" customWidth="1"/>
     <col min="69" max="69" width="13" customWidth="1"/>
-    <col min="70" max="70" width="11.875" customWidth="1"/>
-    <col min="71" max="71" width="15.25" customWidth="1"/>
-    <col min="72" max="72" width="11.875" customWidth="1"/>
+    <col min="70" max="70" width="11.88671875" customWidth="1"/>
+    <col min="71" max="71" width="15.21875" customWidth="1"/>
+    <col min="72" max="72" width="11.88671875" customWidth="1"/>
     <col min="73" max="73" width="13" customWidth="1"/>
-    <col min="74" max="74" width="17.5" customWidth="1"/>
-    <col min="75" max="75" width="20.875" customWidth="1"/>
-    <col min="76" max="76" width="16.5" customWidth="1"/>
+    <col min="74" max="74" width="17.44140625" customWidth="1"/>
+    <col min="75" max="75" width="20.88671875" customWidth="1"/>
+    <col min="76" max="76" width="16.44140625" customWidth="1"/>
     <col min="77" max="77" width="13" customWidth="1"/>
-    <col min="78" max="78" width="11.875" customWidth="1"/>
-    <col min="79" max="79" width="10.75" customWidth="1"/>
-    <col min="80" max="80" width="11.875" customWidth="1"/>
-    <col min="81" max="82" width="7.625" customWidth="1"/>
-    <col min="83" max="84" width="17.5" customWidth="1"/>
-    <col min="85" max="85" width="16.5" customWidth="1"/>
-    <col min="86" max="86" width="11.875" customWidth="1"/>
-    <col min="87" max="87" width="14.125" customWidth="1"/>
-    <col min="88" max="88" width="16.5" customWidth="1"/>
-    <col min="89" max="89" width="10.75" customWidth="1"/>
-    <col min="90" max="90" width="11.875" customWidth="1"/>
-    <col min="91" max="91" width="19.75" customWidth="1"/>
-    <col min="92" max="92" width="16.5" customWidth="1"/>
-    <col min="93" max="93" width="23.125" customWidth="1"/>
-    <col min="94" max="94" width="7.625" customWidth="1"/>
-    <col min="95" max="95" width="18.625" customWidth="1"/>
-    <col min="96" max="96" width="10.75" customWidth="1"/>
-    <col min="97" max="97" width="14.125" customWidth="1"/>
+    <col min="78" max="78" width="11.88671875" customWidth="1"/>
+    <col min="79" max="79" width="10.77734375" customWidth="1"/>
+    <col min="80" max="80" width="11.88671875" customWidth="1"/>
+    <col min="81" max="82" width="7.6640625" customWidth="1"/>
+    <col min="83" max="84" width="17.44140625" customWidth="1"/>
+    <col min="85" max="85" width="16.44140625" customWidth="1"/>
+    <col min="86" max="86" width="11.88671875" customWidth="1"/>
+    <col min="87" max="87" width="14.109375" customWidth="1"/>
+    <col min="88" max="88" width="16.44140625" customWidth="1"/>
+    <col min="89" max="89" width="10.77734375" customWidth="1"/>
+    <col min="90" max="90" width="11.88671875" customWidth="1"/>
+    <col min="91" max="91" width="19.77734375" customWidth="1"/>
+    <col min="92" max="92" width="16.44140625" customWidth="1"/>
+    <col min="93" max="93" width="23.109375" customWidth="1"/>
+    <col min="94" max="94" width="7.6640625" customWidth="1"/>
+    <col min="95" max="95" width="18.6640625" customWidth="1"/>
+    <col min="96" max="96" width="10.77734375" customWidth="1"/>
+    <col min="97" max="97" width="14.109375" customWidth="1"/>
     <col min="98" max="98" width="13" customWidth="1"/>
-    <col min="99" max="99" width="16.5" customWidth="1"/>
+    <col min="99" max="99" width="16.44140625" customWidth="1"/>
     <col min="100" max="101" width="13" customWidth="1"/>
-    <col min="102" max="102" width="9.625" customWidth="1"/>
-    <col min="103" max="103" width="16.5" customWidth="1"/>
-    <col min="104" max="104" width="14.125" customWidth="1"/>
-    <col min="105" max="105" width="11.875" customWidth="1"/>
-    <col min="106" max="107" width="15.25" customWidth="1"/>
-    <col min="108" max="108" width="9.625" customWidth="1"/>
+    <col min="102" max="102" width="9.6640625" customWidth="1"/>
+    <col min="103" max="103" width="16.44140625" customWidth="1"/>
+    <col min="104" max="104" width="14.109375" customWidth="1"/>
+    <col min="105" max="105" width="11.88671875" customWidth="1"/>
+    <col min="106" max="107" width="15.21875" customWidth="1"/>
+    <col min="108" max="108" width="9.6640625" customWidth="1"/>
     <col min="109" max="109" width="13" customWidth="1"/>
-    <col min="110" max="110" width="9.625" customWidth="1"/>
-    <col min="111" max="111" width="15.25" customWidth="1"/>
-    <col min="112" max="112" width="17.5" customWidth="1"/>
-    <col min="113" max="113" width="14.125" customWidth="1"/>
-    <col min="114" max="114" width="19.75" customWidth="1"/>
-    <col min="115" max="115" width="16.5" customWidth="1"/>
-    <col min="116" max="116" width="20.875" customWidth="1"/>
-    <col min="117" max="117" width="24.25" customWidth="1"/>
-    <col min="118" max="118" width="16.5" customWidth="1"/>
-    <col min="119" max="119" width="17.5" customWidth="1"/>
+    <col min="110" max="110" width="9.6640625" customWidth="1"/>
+    <col min="111" max="111" width="15.21875" customWidth="1"/>
+    <col min="112" max="112" width="17.44140625" customWidth="1"/>
+    <col min="113" max="113" width="14.109375" customWidth="1"/>
+    <col min="114" max="114" width="19.77734375" customWidth="1"/>
+    <col min="115" max="115" width="16.44140625" customWidth="1"/>
+    <col min="116" max="116" width="20.88671875" customWidth="1"/>
+    <col min="117" max="117" width="24.21875" customWidth="1"/>
+    <col min="118" max="118" width="16.44140625" customWidth="1"/>
+    <col min="119" max="119" width="17.44140625" customWidth="1"/>
     <col min="120" max="120" width="22" customWidth="1"/>
-    <col min="121" max="122" width="20.875" customWidth="1"/>
-    <col min="123" max="123" width="19.75" customWidth="1"/>
-    <col min="124" max="124" width="17.5" customWidth="1"/>
-    <col min="125" max="125" width="20.875" customWidth="1"/>
-    <col min="126" max="126" width="18.625" customWidth="1"/>
-    <col min="127" max="127" width="8.625" customWidth="1"/>
-    <col min="128" max="128" width="15.25" customWidth="1"/>
+    <col min="121" max="122" width="20.88671875" customWidth="1"/>
+    <col min="123" max="123" width="19.77734375" customWidth="1"/>
+    <col min="124" max="124" width="17.44140625" customWidth="1"/>
+    <col min="125" max="125" width="20.88671875" customWidth="1"/>
+    <col min="126" max="126" width="18.6640625" customWidth="1"/>
+    <col min="127" max="127" width="8.6640625" customWidth="1"/>
+    <col min="128" max="128" width="15.21875" customWidth="1"/>
     <col min="129" max="129" width="13" customWidth="1"/>
-    <col min="130" max="130" width="14.125" customWidth="1"/>
-    <col min="131" max="131" width="10.75" customWidth="1"/>
-    <col min="132" max="132" width="11.875" customWidth="1"/>
-    <col min="133" max="133" width="15.25" customWidth="1"/>
-    <col min="134" max="134" width="16.5" customWidth="1"/>
-    <col min="135" max="135" width="14.125" customWidth="1"/>
-    <col min="136" max="136" width="17.5" customWidth="1"/>
-    <col min="137" max="137" width="14.125" customWidth="1"/>
+    <col min="130" max="130" width="14.109375" customWidth="1"/>
+    <col min="131" max="131" width="10.77734375" customWidth="1"/>
+    <col min="132" max="132" width="11.88671875" customWidth="1"/>
+    <col min="133" max="133" width="15.21875" customWidth="1"/>
+    <col min="134" max="134" width="16.44140625" customWidth="1"/>
+    <col min="135" max="135" width="14.109375" customWidth="1"/>
+    <col min="136" max="136" width="17.44140625" customWidth="1"/>
+    <col min="137" max="137" width="14.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>121</v>
       </c>
@@ -4317,7 +4335,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="2" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>317</v>
       </c>
@@ -4337,7 +4355,7 @@
         <v>86</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>87</v>
@@ -4439,7 +4457,7 @@
         <v>250</v>
       </c>
       <c r="AQ2" s="1" t="s">
-        <v>321</v>
+        <v>337</v>
       </c>
       <c r="AR2" s="1" t="s">
         <v>87</v>
@@ -4462,8 +4480,8 @@
       <c r="AY2" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="AZ2" s="1" t="s">
-        <v>248</v>
+      <c r="AZ2" s="2" t="s">
+        <v>338</v>
       </c>
       <c r="BA2" s="1" t="s">
         <v>92</v>
@@ -4523,7 +4541,7 @@
         <v>86</v>
       </c>
       <c r="BZ2" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="CA2" s="1" t="s">
         <v>95</v>
@@ -4541,13 +4559,13 @@
         <v>92</v>
       </c>
       <c r="CH2" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="CJ2" s="1" t="s">
         <v>253</v>
       </c>
       <c r="CK2" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="CL2" s="1" t="s">
         <v>102</v>
@@ -4646,9 +4664,9 @@
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>247</v>
@@ -4666,7 +4684,7 @@
         <v>86</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>87</v>
@@ -4768,7 +4786,7 @@
         <v>250</v>
       </c>
       <c r="AQ3" s="1" t="s">
-        <v>321</v>
+        <v>337</v>
       </c>
       <c r="AR3" s="1" t="s">
         <v>87</v>
@@ -4791,8 +4809,8 @@
       <c r="AY3" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="AZ3" s="1" t="s">
-        <v>248</v>
+      <c r="AZ3" s="2" t="s">
+        <v>338</v>
       </c>
       <c r="BA3" s="1" t="s">
         <v>92</v>
@@ -4852,7 +4870,7 @@
         <v>86</v>
       </c>
       <c r="BZ3" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="CA3" s="1" t="s">
         <v>95</v>
@@ -4870,13 +4888,13 @@
         <v>92</v>
       </c>
       <c r="CH3" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="CJ3" s="1" t="s">
         <v>253</v>
       </c>
       <c r="CK3" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="CL3" s="1" t="s">
         <v>102</v>
@@ -4975,9 +4993,9 @@
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>260</v>
@@ -4995,7 +5013,7 @@
         <v>86</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>87</v>
@@ -5097,7 +5115,7 @@
         <v>250</v>
       </c>
       <c r="AQ4" s="1" t="s">
-        <v>321</v>
+        <v>337</v>
       </c>
       <c r="AR4" s="1" t="s">
         <v>87</v>
@@ -5120,8 +5138,8 @@
       <c r="AY4" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="AZ4" s="1" t="s">
-        <v>248</v>
+      <c r="AZ4" s="2" t="s">
+        <v>338</v>
       </c>
       <c r="BA4" s="1" t="s">
         <v>92</v>
@@ -5181,7 +5199,7 @@
         <v>86</v>
       </c>
       <c r="BZ4" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="CA4" s="1" t="s">
         <v>95</v>
@@ -5199,7 +5217,7 @@
         <v>92</v>
       </c>
       <c r="CH4" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="CJ4" s="1" t="s">
         <v>253</v>
@@ -5304,9 +5322,9 @@
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>260</v>
@@ -5324,7 +5342,7 @@
         <v>86</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>111</v>
@@ -5378,7 +5396,7 @@
         <v>95</v>
       </c>
       <c r="AA5" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AB5" s="1" t="s">
         <v>313</v>
@@ -5426,7 +5444,7 @@
         <v>250</v>
       </c>
       <c r="AQ5" s="1" t="s">
-        <v>321</v>
+        <v>337</v>
       </c>
       <c r="AR5" s="1" t="s">
         <v>111</v>
@@ -5449,8 +5467,8 @@
       <c r="AY5" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="AZ5" s="1" t="s">
-        <v>248</v>
+      <c r="AZ5" s="2" t="s">
+        <v>338</v>
       </c>
       <c r="BA5" s="1" t="s">
         <v>92</v>
@@ -5510,7 +5528,7 @@
         <v>86</v>
       </c>
       <c r="BZ5" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="CA5" s="1" t="s">
         <v>95</v>
@@ -5528,7 +5546,7 @@
         <v>92</v>
       </c>
       <c r="CH5" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="CJ5" s="1" t="s">
         <v>253</v>
@@ -5633,9 +5651,9 @@
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>261</v>
@@ -5653,7 +5671,7 @@
         <v>86</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>111</v>
@@ -5707,7 +5725,7 @@
         <v>95</v>
       </c>
       <c r="AA6" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AB6" s="1" t="s">
         <v>107</v>
@@ -5755,7 +5773,7 @@
         <v>250</v>
       </c>
       <c r="AQ6" s="1" t="s">
-        <v>321</v>
+        <v>337</v>
       </c>
       <c r="AR6" s="1" t="s">
         <v>111</v>
@@ -5778,8 +5796,8 @@
       <c r="AY6" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="AZ6" s="1" t="s">
-        <v>248</v>
+      <c r="AZ6" s="2" t="s">
+        <v>338</v>
       </c>
       <c r="BA6" s="1" t="s">
         <v>92</v>
@@ -5839,7 +5857,7 @@
         <v>86</v>
       </c>
       <c r="BZ6" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="CA6" s="1" t="s">
         <v>95</v>
@@ -5857,13 +5875,13 @@
         <v>92</v>
       </c>
       <c r="CH6" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="CJ6" s="1" t="s">
         <v>253</v>
       </c>
       <c r="CK6" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="CL6" s="1" t="s">
         <v>102</v>
@@ -5962,9 +5980,9 @@
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>247</v>
@@ -5982,7 +6000,7 @@
         <v>86</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>111</v>
@@ -6036,7 +6054,7 @@
         <v>95</v>
       </c>
       <c r="AA7" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AB7" s="1" t="s">
         <v>92</v>
@@ -6084,7 +6102,7 @@
         <v>250</v>
       </c>
       <c r="AQ7" s="1" t="s">
-        <v>321</v>
+        <v>337</v>
       </c>
       <c r="AR7" s="1" t="s">
         <v>111</v>
@@ -6107,8 +6125,8 @@
       <c r="AY7" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="AZ7" s="1" t="s">
-        <v>248</v>
+      <c r="AZ7" s="2" t="s">
+        <v>338</v>
       </c>
       <c r="BA7" s="1" t="s">
         <v>92</v>
@@ -6168,7 +6186,7 @@
         <v>86</v>
       </c>
       <c r="BZ7" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="CA7" s="1" t="s">
         <v>95</v>
@@ -6186,13 +6204,13 @@
         <v>92</v>
       </c>
       <c r="CH7" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="CJ7" s="1" t="s">
         <v>253</v>
       </c>
       <c r="CK7" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="CL7" s="1" t="s">
         <v>102</v>
@@ -6291,26 +6309,26 @@
         <v>102</v>
       </c>
     </row>
-    <row r="8" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="10" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="11" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="12" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="13" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="16" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="22" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="23" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="24" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="25" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="26" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="27" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6326,12 +6344,12 @@
       <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="16.125" customWidth="1"/>
+    <col min="1" max="2" width="16.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>123</v>
       </c>
@@ -6537,7 +6555,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="2" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>299</v>
       </c>
@@ -6677,7 +6695,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>299</v>
       </c>
@@ -6817,7 +6835,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>299</v>
       </c>
@@ -6957,7 +6975,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="5" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>299</v>
       </c>
@@ -7097,22 +7115,22 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="7" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="8" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="10" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="11" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="12" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="13" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="16" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="6" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
